--- a/GDP-FPGAII 1.x/GDPHS_VGA - v1.3 - BOM.xlsx
+++ b/GDP-FPGAII 1.x/GDPHS_VGA - v1.3 - BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NDR\NDR2.0\EAGLE\GDPFPGAII\GDP-FPGAII 1.x\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12945"/>
   </bookViews>
@@ -739,7 +744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,6 +922,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1089,61 +1100,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1196,7 +1210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1231,7 +1245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1443,10 +1457,11 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
